--- a/public/template_fm_2024.xlsx
+++ b/public/template_fm_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D353046-CD7B-4765-9043-E10915799E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF8A02B-EC82-48AC-8786-2E0DC3A1A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Emp Details Activity" sheetId="4" r:id="rId2"/>
     <sheet name="Fare" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -132,6 +132,26 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">EMPLOYEES DETAILS ACTIVITIES
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FINANCIAL MANAGER</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Mandays</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="18"/>
@@ -163,37 +183,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FINANCIAL MANAGER</t>
+      <t>ALLOWANCES CALCULATIONS</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMPLOYEES DETAILS ACTIVITIES
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FINANCIAL MANAGER</t>
-    </r>
-  </si>
-  <si>
-    <t>Total Mandays2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00;[Red]&quot;Rp&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -281,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -307,14 +309,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +560,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+      <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -571,6 +575,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -589,7 +594,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00;[Red]&quot;Rp&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -604,7 +609,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00;[Red]&quot;Rp&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -619,6 +624,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00;[Red]&quot;Rp&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -633,6 +639,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00;[Red]&quot;Rp&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -890,10 +897,10 @@
     <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location" dataDxfId="30"/>
     <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Mandays" dataDxfId="29"/>
     <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Fare" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Mandays2" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{8EA4C805-BD8B-49D9-A49E-A782F6516329}" name="Assignments" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{DADFFC8B-9505-4472-B53C-69ACAC61CA0C}" name="Presales" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Allowances" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Assignments" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{8EA4C805-BD8B-49D9-A49E-A782F6516329}" name="Presales" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{DADFFC8B-9505-4472-B53C-69ACAC61CA0C}" name="Total Mandays" dataDxfId="24"/>
     <tableColumn id="14" xr3:uid="{A41CFEA4-8993-49CF-B59D-9F9ED5B1F01C}" name="Total" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1245,8 +1252,8 @@
   </sheetPr>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,10 +1261,11 @@
     <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
@@ -1268,88 +1276,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>34</v>
+      <c r="A1" s="14" t="s">
+        <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1374,21 +1382,21 @@
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="13"/>
+      <c r="M7" s="11"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1400,12 +1408,12 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="6"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1418,12 +1426,12 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="6"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1436,12 +1444,12 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="6"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1454,12 +1462,12 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="6"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1472,12 +1480,12 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="6"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1490,12 +1498,12 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="6"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1508,12 +1516,12 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1523,12 +1531,12 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1538,12 +1546,12 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="6"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1556,12 +1564,12 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="6"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1574,12 +1582,12 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="6"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1592,12 +1600,12 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="6"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1610,12 +1618,12 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="6"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1628,12 +1636,12 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="6"/>
       <c r="O21" s="1"/>
       <c r="Q21" s="2"/>
@@ -1645,12 +1653,12 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="6"/>
       <c r="O22" s="1"/>
       <c r="Q22" s="2"/>
@@ -1662,12 +1670,12 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="6"/>
       <c r="O23" s="1"/>
       <c r="Q23" s="2"/>
@@ -1679,12 +1687,12 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="6"/>
       <c r="O24" s="1"/>
       <c r="Q24" s="2"/>
@@ -1696,12 +1704,12 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1711,12 +1719,12 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1726,12 +1734,12 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="13"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1741,12 +1749,12 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1756,12 +1764,12 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1771,12 +1779,12 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1786,12 +1794,12 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1801,12 +1809,12 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="13"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1816,12 +1824,12 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1831,12 +1839,12 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1846,12 +1854,12 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="13"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1861,12 +1869,12 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="13"/>
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1876,12 +1884,12 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="13"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1891,12 +1899,12 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="13"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1906,12 +1914,12 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1921,12 +1929,12 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="13"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1936,12 +1944,12 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="13"/>
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1951,12 +1959,12 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="13"/>
       <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1966,12 +1974,12 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="13"/>
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1981,12 +1989,12 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="13"/>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1996,12 +2004,12 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="13"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2011,12 +2019,12 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="13"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2026,12 +2034,12 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2041,12 +2049,12 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="13"/>
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2056,12 +2064,12 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="13"/>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2071,12 +2079,12 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="13"/>
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2086,12 +2094,12 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="13"/>
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2101,12 +2109,12 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="13"/>
       <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2116,12 +2124,12 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2131,12 +2139,12 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="13"/>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2146,12 +2154,12 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="13"/>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2161,12 +2169,12 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="13"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2176,12 +2184,12 @@
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="13"/>
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2191,12 +2199,12 @@
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="13"/>
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2206,12 +2214,12 @@
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="13"/>
       <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2221,12 +2229,12 @@
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="13"/>
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2236,12 +2244,12 @@
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="13"/>
       <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2251,12 +2259,12 @@
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="13"/>
       <c r="M62" s="6"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2266,12 +2274,12 @@
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="13"/>
       <c r="M63" s="6"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2281,12 +2289,12 @@
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="13"/>
       <c r="M64" s="6"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2296,12 +2304,12 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="13"/>
       <c r="M65" s="6"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2311,12 +2319,12 @@
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="13"/>
       <c r="M66" s="6"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2326,12 +2334,12 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="13"/>
       <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2341,12 +2349,12 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="13"/>
       <c r="M68" s="6"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2356,12 +2364,12 @@
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="13"/>
       <c r="M69" s="6"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2371,12 +2379,12 @@
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="13"/>
       <c r="M70" s="6"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2386,12 +2394,12 @@
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="13"/>
       <c r="M71" s="6"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2401,12 +2409,12 @@
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="13"/>
       <c r="M72" s="6"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2416,12 +2424,12 @@
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="13"/>
       <c r="M73" s="6"/>
     </row>
     <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2431,12 +2439,12 @@
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="13"/>
       <c r="M74" s="6"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2446,12 +2454,12 @@
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="13"/>
       <c r="M75" s="6"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2461,12 +2469,12 @@
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="13"/>
       <c r="M76" s="6"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2476,12 +2484,12 @@
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="13"/>
       <c r="M77" s="6"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2491,12 +2499,12 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="13"/>
       <c r="M78" s="6"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2506,12 +2514,12 @@
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="13"/>
       <c r="M79" s="6"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2521,12 +2529,12 @@
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="13"/>
       <c r="M80" s="6"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2536,12 +2544,12 @@
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="13"/>
       <c r="M81" s="6"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2551,12 +2559,12 @@
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="13"/>
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2566,12 +2574,12 @@
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="13"/>
       <c r="M83" s="6"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2581,12 +2589,12 @@
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="13"/>
       <c r="M84" s="6"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2596,12 +2604,12 @@
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="13"/>
       <c r="M85" s="6"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2611,12 +2619,12 @@
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="13"/>
       <c r="M86" s="6"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2626,12 +2634,12 @@
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="13"/>
       <c r="M87" s="6"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2641,12 +2649,12 @@
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="13"/>
       <c r="M88" s="6"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2656,12 +2664,12 @@
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="13"/>
       <c r="M89" s="6"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2671,12 +2679,12 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="13"/>
       <c r="M90" s="6"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2686,12 +2694,12 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="13"/>
       <c r="M91" s="6"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2701,12 +2709,12 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="13"/>
       <c r="M92" s="6"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2716,12 +2724,12 @@
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="13"/>
       <c r="M93" s="6"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2731,12 +2739,12 @@
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="13"/>
       <c r="M94" s="6"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2746,12 +2754,12 @@
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="13"/>
       <c r="M95" s="6"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2761,12 +2769,12 @@
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="13"/>
       <c r="M96" s="6"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2776,12 +2784,12 @@
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="13"/>
       <c r="M97" s="6"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2791,12 +2799,12 @@
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="13"/>
       <c r="M98" s="6"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2806,12 +2814,12 @@
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="13"/>
       <c r="M99" s="6"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2821,12 +2829,12 @@
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="13"/>
       <c r="M100" s="6"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2836,12 +2844,12 @@
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="13"/>
       <c r="M101" s="6"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2851,12 +2859,12 @@
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="13"/>
       <c r="M102" s="6"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2866,12 +2874,12 @@
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="13"/>
       <c r="M103" s="6"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2881,12 +2889,12 @@
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="13"/>
       <c r="M104" s="6"/>
     </row>
     <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2896,12 +2904,12 @@
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="13"/>
       <c r="M105" s="6"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2911,12 +2919,12 @@
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="13"/>
       <c r="M106" s="6"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2926,12 +2934,12 @@
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="13"/>
       <c r="M107" s="6"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2941,12 +2949,12 @@
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="13"/>
       <c r="M108" s="6"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2956,12 +2964,12 @@
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="13"/>
       <c r="M109" s="6"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2971,12 +2979,12 @@
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="13"/>
       <c r="M110" s="6"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -2986,12 +2994,12 @@
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="13"/>
       <c r="M111" s="6"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3001,12 +3009,12 @@
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="13"/>
       <c r="M112" s="6"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3016,12 +3024,12 @@
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="13"/>
       <c r="M113" s="6"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3031,12 +3039,12 @@
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="13"/>
       <c r="M114" s="6"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3046,12 +3054,12 @@
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="13"/>
       <c r="M115" s="6"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3061,12 +3069,12 @@
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="13"/>
       <c r="M116" s="6"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3076,12 +3084,12 @@
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="13"/>
       <c r="M117" s="6"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3091,12 +3099,12 @@
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="13"/>
       <c r="M118" s="6"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3106,12 +3114,12 @@
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="13"/>
       <c r="M119" s="6"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3121,12 +3129,12 @@
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="13"/>
       <c r="M120" s="6"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3136,12 +3144,12 @@
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="13"/>
       <c r="M121" s="6"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3151,12 +3159,12 @@
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="13"/>
       <c r="M122" s="6"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3166,12 +3174,12 @@
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="13"/>
       <c r="M123" s="6"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3181,12 +3189,12 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="13"/>
       <c r="M124" s="6"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3196,12 +3204,12 @@
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="13"/>
       <c r="M125" s="6"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3211,12 +3219,12 @@
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="13"/>
       <c r="M126" s="6"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3226,12 +3234,12 @@
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="13"/>
       <c r="M127" s="6"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3241,12 +3249,12 @@
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="13"/>
       <c r="M128" s="6"/>
     </row>
     <row r="129" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3256,12 +3264,12 @@
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="13"/>
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3271,12 +3279,12 @@
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="13"/>
       <c r="M130" s="6"/>
     </row>
     <row r="131" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3286,12 +3294,12 @@
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="13"/>
       <c r="M131" s="6"/>
     </row>
     <row r="132" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3301,12 +3309,12 @@
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="13"/>
       <c r="M132" s="6"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3316,12 +3324,12 @@
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="13"/>
       <c r="M133" s="6"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3331,12 +3339,12 @@
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="13"/>
       <c r="M134" s="6"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3346,12 +3354,12 @@
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="13"/>
       <c r="M135" s="6"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3361,12 +3369,12 @@
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="13"/>
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3376,12 +3384,12 @@
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="13"/>
       <c r="M137" s="6"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3391,12 +3399,12 @@
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="13"/>
       <c r="M138" s="6"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3406,12 +3414,12 @@
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="13"/>
       <c r="M139" s="6"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3421,12 +3429,12 @@
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="13"/>
       <c r="M140" s="6"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3436,12 +3444,12 @@
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="13"/>
       <c r="M141" s="6"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3451,12 +3459,12 @@
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="13"/>
       <c r="M142" s="6"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3466,12 +3474,12 @@
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="13"/>
       <c r="M143" s="6"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3481,12 +3489,12 @@
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="13"/>
       <c r="M144" s="6"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3496,12 +3504,12 @@
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="13"/>
       <c r="M145" s="6"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3511,12 +3519,12 @@
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="13"/>
       <c r="M146" s="6"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3526,12 +3534,12 @@
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="13"/>
       <c r="M147" s="6"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3541,12 +3549,12 @@
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="13"/>
       <c r="M148" s="6"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3556,12 +3564,12 @@
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="13"/>
       <c r="M149" s="6"/>
     </row>
     <row r="150" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3571,12 +3579,12 @@
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="13"/>
       <c r="M150" s="6"/>
     </row>
     <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -3586,18 +3594,18 @@
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="13"/>
       <c r="M151" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3637,88 +3645,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>35</v>
+      <c r="A1" s="14" t="s">
+        <v>34</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
